--- a/data/trans_dic/P69$dolorMuscular-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P69$dolorMuscular-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4187460765084012</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6763237409747812</v>
+        <v>0.6763237409747811</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.5324688525044387</v>
@@ -685,7 +685,7 @@
         <v>0.6962399357520509</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.7977257724473</v>
+        <v>0.7977257724473001</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.6112858834515169</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5075487841047092</v>
+        <v>0.508412778196164</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4275854643105801</v>
+        <v>0.4272196352669386</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2910349173652725</v>
+        <v>0.3016140283513379</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4710831744779408</v>
+        <v>0.472259538910674</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3271258033578343</v>
+        <v>0.3273752062326866</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4479454884427592</v>
+        <v>0.464251703874937</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5105134934716977</v>
+        <v>0.5429670149455303</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5862366789517884</v>
+        <v>0.5782339587524873</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4850072527743259</v>
+        <v>0.4780959864306881</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4966152634902551</v>
+        <v>0.4894032042480984</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.433727463576234</v>
+        <v>0.4267248993147552</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.576955938749442</v>
+        <v>0.5765002408582779</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.805097325875999</v>
+        <v>0.7879083292608522</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7392656919838069</v>
+        <v>0.7367055058837939</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5630062526758879</v>
+        <v>0.5626739588621691</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8458801058951155</v>
+        <v>0.8426213845424355</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7262046034783143</v>
+        <v>0.728686400864579</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8219949449597984</v>
+        <v>0.8370893183389426</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8197128209769133</v>
+        <v>0.8251274181876987</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9305781039015354</v>
+        <v>0.9261204548974695</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7278923229937382</v>
+        <v>0.7201135183130731</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7449635461817198</v>
+        <v>0.731761726290956</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6503810759874147</v>
+        <v>0.6374927173219903</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.8349334779395848</v>
+        <v>0.8389205151850171</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.7501747476240969</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5922119865482206</v>
+        <v>0.5922119865482207</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.5841653835343813</v>
@@ -833,7 +833,7 @@
         <v>0.7652979167414399</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.5614615989686383</v>
+        <v>0.5614615989686382</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3760922763449608</v>
+        <v>0.3685311532008926</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5147229576320296</v>
+        <v>0.5001933036517683</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6465421933247245</v>
+        <v>0.6429456961552081</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4092549510855979</v>
+        <v>0.4180722051170658</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4119252367732699</v>
+        <v>0.4215543035793279</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2241129119854905</v>
+        <v>0.2249767776097432</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6499028898667737</v>
+        <v>0.6375964096415938</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4049115178024054</v>
+        <v>0.4006564772576224</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4240893209815792</v>
+        <v>0.4280012279308528</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4452866563535765</v>
+        <v>0.4334983565097831</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.6813361926297536</v>
+        <v>0.6839486532910011</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4591227102275819</v>
+        <v>0.4479089655544287</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6194881342968988</v>
+        <v>0.6186835918507251</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7754937307405345</v>
+        <v>0.7589919473925004</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8422036279737652</v>
+        <v>0.8460710472068655</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7592297353501073</v>
+        <v>0.7695292115975049</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7456997890781819</v>
+        <v>0.7432135802354135</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5633176675040708</v>
+        <v>0.5678380152739474</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9038387487685724</v>
+        <v>0.9026175623556324</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6668521493915224</v>
+        <v>0.664242024656745</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6162464718258307</v>
+        <v>0.6283582149954646</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6531145718173446</v>
+        <v>0.6499439360043432</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8359747093819688</v>
+        <v>0.8337447036270753</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6748975126208153</v>
+        <v>0.6660708066265858</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.6421411509537631</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.543534555158529</v>
+        <v>0.5435345551585291</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.490891901055766</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3884950308960646</v>
+        <v>0.3651476637378143</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4213397238166046</v>
+        <v>0.4210989216631286</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6518715362665491</v>
+        <v>0.6073510708594706</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3825602908488999</v>
+        <v>0.3824607092957868</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2250649408283699</v>
+        <v>0.2226995382734601</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.218690991715071</v>
+        <v>0.2107169417118435</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3203685163549374</v>
+        <v>0.3560428343077967</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4286302526685745</v>
+        <v>0.4251715248635868</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3599528871536322</v>
+        <v>0.3557354902546451</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3875429055122992</v>
+        <v>0.4042647204284849</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.6083664485681685</v>
+        <v>0.6027681113098289</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4233839095102985</v>
+        <v>0.4379953625274023</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7082874845907384</v>
+        <v>0.7074214213355074</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8093798533539253</v>
+        <v>0.7712107789774542</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9569273506196048</v>
+        <v>0.9574504050741426</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6514765427155902</v>
+        <v>0.6557314942384509</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5997866045020329</v>
+        <v>0.6330257999809039</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6886759004252697</v>
+        <v>0.7033859939799002</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.86488042725762</v>
+        <v>0.8658550168908989</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6643289513674381</v>
+        <v>0.6705557823841751</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6195284333274423</v>
+        <v>0.6175666402912553</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6912327662914326</v>
+        <v>0.6924185755088349</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.876844537561296</v>
+        <v>0.8923802382389219</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6141568265423928</v>
+        <v>0.6241479220380269</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.656352242612704</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.7984945675955367</v>
+        <v>0.7984945675955366</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.4153433470421545</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2932186135178886</v>
+        <v>0.2919439189070188</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3620822371948512</v>
+        <v>0.3574919954181636</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5034834541373162</v>
+        <v>0.5020590078755772</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5632586135292718</v>
+        <v>0.5432271658333983</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.227960735177519</v>
+        <v>0.2112510843148795</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.341718271498904</v>
+        <v>0.3369123391466816</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4709331051517527</v>
+        <v>0.4740708097253307</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6861990345488737</v>
+        <v>0.6927636171599529</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3114133573936144</v>
+        <v>0.3102127085306512</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3948248724972815</v>
+        <v>0.4063348840335846</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5474354509475559</v>
+        <v>0.5536657161205127</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6579441828257422</v>
+        <v>0.6685312175818069</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5504139939750553</v>
+        <v>0.5581049979371199</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6597676681623215</v>
+        <v>0.6630890396631458</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8479640758826892</v>
+        <v>0.8452599201569915</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8762251992604351</v>
+        <v>0.8739851386118598</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6271189440866137</v>
+        <v>0.627561801313362</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7111071538470943</v>
+        <v>0.7281555564840148</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8157547736183738</v>
+        <v>0.8156288073882567</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8895980700092607</v>
+        <v>0.8878402205281324</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5342002315520734</v>
+        <v>0.5308319990663359</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.645722474971744</v>
+        <v>0.6379594830594147</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7941678806065905</v>
+        <v>0.7830344508594593</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.840384214749943</v>
+        <v>0.8530384538175102</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2128380274820817</v>
+        <v>0.2115498785447265</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.622032474230935</v>
+        <v>0.583326738072511</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2638427934946009</v>
+        <v>0.3011331575254848</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2966560487768223</v>
+        <v>0.295073554961627</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3062720316747503</v>
+        <v>0.2998010699891985</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3223128832459186</v>
+        <v>0.3171375940187142</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2684854723346669</v>
+        <v>0.2652503619331256</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1784143816014012</v>
+        <v>0.1847986459174618</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5882883542156164</v>
+        <v>0.5889159506318639</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4141965114409569</v>
+        <v>0.3841931530036223</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3430061464837361</v>
+        <v>0.3348912734514303</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6197395674578761</v>
+        <v>0.6136273777114063</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8332516368365896</v>
+        <v>0.8531452257276748</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6772456190898292</v>
+        <v>0.6653164100388039</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7137232957265022</v>
+        <v>0.5759628430365297</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9098311743744084</v>
+        <v>0.9141980669410994</v>
       </c>
       <c r="I18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6544589960166493</v>
+        <v>0.6516016389024604</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5374405141194162</v>
+        <v>0.5290608705704059</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9256947903869475</v>
+        <v>0.9008649643975793</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8543706527167548</v>
+        <v>0.8505196015069173</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6200265924463239</v>
+        <v>0.6178595771152116</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.3533959744900928</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.6430106519577453</v>
+        <v>0.6430106519577452</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.4160777337873776</v>
@@ -1377,7 +1377,7 @@
         <v>0.4826975728809403</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.6154437681598732</v>
+        <v>0.6154437681598731</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2676498663542653</v>
+        <v>0.2665503758753062</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4178658894284609</v>
+        <v>0.4264796593132091</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1681777388943906</v>
+        <v>0.1739516833272165</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4794532412874334</v>
+        <v>0.481887106113689</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1977487064604575</v>
+        <v>0.1425735793138877</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06637638428525736</v>
+        <v>0.06842154265597668</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4393352059695361</v>
+        <v>0.4469872830701578</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4370873490659655</v>
+        <v>0.4423690530763869</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2690479988781157</v>
+        <v>0.2756692266895461</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3651892209901794</v>
+        <v>0.3550087587865144</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2896027460017047</v>
+        <v>0.2989149639579832</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.5000100808312646</v>
+        <v>0.512701951076901</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5717163535637483</v>
+        <v>0.5619211094494746</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.704668090328243</v>
+        <v>0.7146252553786213</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5515806024016</v>
+        <v>0.5870483347474129</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7889160725337185</v>
+        <v>0.7859041634579771</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.704523326426016</v>
+        <v>0.6917081659125086</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5305700040001735</v>
+        <v>0.5283653342439354</v>
       </c>
       <c r="I21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.725657272574595</v>
+        <v>0.7317284492211199</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5471322393411537</v>
+        <v>0.557785149860238</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.6118642446642942</v>
+        <v>0.6182809165666103</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.6673160617339399</v>
+        <v>0.6790013068003241</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.7114982496034037</v>
+        <v>0.7106633079386138</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.659899299218928</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.589644533167602</v>
+        <v>0.5896445331676021</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.519274543645779</v>
@@ -1513,7 +1513,7 @@
         <v>0.6291098231593756</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.6190219947802266</v>
+        <v>0.6190219947802267</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3666634071363186</v>
+        <v>0.3718801304529937</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2865618242509612</v>
+        <v>0.2827695209983938</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5403282164461478</v>
+        <v>0.5323777297796215</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4551544949585415</v>
+        <v>0.4685854729649768</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3557981501493766</v>
+        <v>0.351601634866097</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4163885671044251</v>
+        <v>0.4191808883819959</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4444783757195513</v>
+        <v>0.4457469830886942</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5528325644044073</v>
+        <v>0.5412452732101116</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4034837312672361</v>
+        <v>0.4156425838552779</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3868628738524669</v>
+        <v>0.3796379954770919</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.5462920054603797</v>
+        <v>0.5335628644003845</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5330795443288772</v>
+        <v>0.5384746203470228</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5879095019099366</v>
+        <v>0.5808056858471897</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5620203591529678</v>
+        <v>0.5606854642168465</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7638336206967168</v>
+        <v>0.7660103796164506</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7080283934913858</v>
+        <v>0.710626753657323</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6621274794376809</v>
+        <v>0.6675015171478362</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7127093875373228</v>
+        <v>0.7075169994980854</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7133740225467172</v>
+        <v>0.7071956189198092</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7389581607608505</v>
+        <v>0.7428639223964594</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5868121588694469</v>
+        <v>0.5848935332230886</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5976397188489445</v>
+        <v>0.5840172945010166</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.7182438120883309</v>
+        <v>0.712590433442379</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.6933281490132602</v>
+        <v>0.6971639469212509</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.3690498634509289</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.7506601383135936</v>
+        <v>0.7506601383135932</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.6413382182584583</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.5318409528491</v>
+        <v>0.5309934218025082</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2742355039359575</v>
+        <v>0.2779321386667261</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.211018549010533</v>
+        <v>0.2163940330337065</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.6228349011150034</v>
+        <v>0.6340908273807022</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.4946444556781638</v>
+        <v>0.5014530282041223</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3750500164465789</v>
+        <v>0.3582602658638912</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3013888125664996</v>
+        <v>0.3116899239095939</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3590486891910578</v>
+        <v>0.3545523222041428</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.5573336334421929</v>
+        <v>0.5551515787529997</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.359615965473868</v>
+        <v>0.3571568365363497</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2927458675247727</v>
+        <v>0.2923924439757197</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.5380711387530828</v>
+        <v>0.5333845135045863</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7134382432172524</v>
+        <v>0.7206375336224679</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5642490888652989</v>
+        <v>0.5698395268967161</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5301258307812966</v>
+        <v>0.5234083007352179</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.852336092328481</v>
+        <v>0.8559525739783583</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7788247629145479</v>
+        <v>0.7650543930705156</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7719880351448719</v>
+        <v>0.75596561370925</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.7505324121761111</v>
+        <v>0.737414945687624</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.5966874639114328</v>
+        <v>0.6120075141263218</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.7049352002947364</v>
+        <v>0.7078024008580966</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.6007202985542057</v>
+        <v>0.6048544444602201</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.5782917189224164</v>
+        <v>0.5547112214204052</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.7066537047178111</v>
+        <v>0.7070429169450339</v>
       </c>
     </row>
     <row r="28">
@@ -1785,7 +1785,7 @@
         <v>0.6268423062071153</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.6215689123963156</v>
+        <v>0.6215689123963158</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4716793852738177</v>
+        <v>0.4766290170674969</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4836157178077435</v>
+        <v>0.4937978344175108</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5443497166541906</v>
+        <v>0.5416053855701742</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5779583043096858</v>
+        <v>0.5801276829931096</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.4503939174513055</v>
+        <v>0.448343887092658</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.4418773661470411</v>
+        <v>0.4408228845376214</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.6081218770139846</v>
+        <v>0.6054033415427434</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.5626876201391734</v>
+        <v>0.5642689367697982</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.4771347410317658</v>
+        <v>0.4819339088249364</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.4949134687714661</v>
+        <v>0.4929011479146192</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.5816933674115641</v>
+        <v>0.5860636397067324</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.5843152915122648</v>
+        <v>0.5835275180138557</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5700461878482095</v>
+        <v>0.5670018662808933</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.6061499291716352</v>
+        <v>0.6046460738476124</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6541390439472835</v>
+        <v>0.6495173072441645</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.6898521422294938</v>
+        <v>0.6891720731897039</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5819819474799803</v>
+        <v>0.5807251949632133</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.5844516659778844</v>
+        <v>0.5913463157459647</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.7354085112642531</v>
+        <v>0.7399347560053867</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.6515439059377878</v>
+        <v>0.6543531439003913</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.5557714096120838</v>
+        <v>0.5589325105985754</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.578857737910898</v>
+        <v>0.5747550059606914</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.6671634253962926</v>
+        <v>0.6689268647090703</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.6543620319724296</v>
+        <v>0.6593922509756256</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>21745</v>
+        <v>21782</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16887</v>
+        <v>16873</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16501</v>
+        <v>17101</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>11669</v>
+        <v>11698</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9362</v>
+        <v>9369</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12533</v>
+        <v>12989</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>20872</v>
+        <v>22199</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9500</v>
+        <v>9370</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>34660</v>
+        <v>34166</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>33507</v>
+        <v>33021</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>42324</v>
+        <v>41640</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>23642</v>
+        <v>23623</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>34494</v>
+        <v>33757</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29197</v>
+        <v>29095</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31921</v>
+        <v>31902</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20953</v>
+        <v>20873</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>20783</v>
+        <v>20854</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>22998</v>
+        <v>23420</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>33513</v>
+        <v>33735</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>15080</v>
+        <v>15008</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>52017</v>
+        <v>51461</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>50263</v>
+        <v>49373</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>63465</v>
+        <v>62207</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>34213</v>
+        <v>34376</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>27228</v>
+        <v>26681</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>29128</v>
+        <v>28306</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>53525</v>
+        <v>53227</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>19647</v>
+        <v>20070</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>13465</v>
+        <v>13780</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>7690</v>
+        <v>7720</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>27749</v>
+        <v>27223</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>18591</v>
+        <v>18396</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>44565</v>
+        <v>44976</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>40479</v>
+        <v>39407</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>85496</v>
+        <v>85824</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>43121</v>
+        <v>42068</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>44849</v>
+        <v>44791</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>43885</v>
+        <v>42951</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>69723</v>
+        <v>70043</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>36448</v>
+        <v>36943</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>24375</v>
+        <v>24294</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>19330</v>
+        <v>19485</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>38591</v>
+        <v>38539</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>30618</v>
+        <v>30498</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>64758</v>
+        <v>66030</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>59371</v>
+        <v>59083</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>104901</v>
+        <v>104621</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>63387</v>
+        <v>62558</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14225</v>
+        <v>13370</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10662</v>
+        <v>10656</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13855</v>
+        <v>12909</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>18723</v>
+        <v>18718</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4889</v>
+        <v>4838</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3922</v>
+        <v>3779</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4005</v>
+        <v>4451</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>19642</v>
+        <v>19483</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>20999</v>
+        <v>20753</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>16757</v>
+        <v>17480</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>20535</v>
+        <v>20346</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>40123</v>
+        <v>41508</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>25934</v>
+        <v>25902</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20481</v>
+        <v>19515</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20339</v>
+        <v>20350</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>31885</v>
+        <v>32093</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13030</v>
+        <v>13752</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12351</v>
+        <v>12615</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10812</v>
+        <v>10824</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>30443</v>
+        <v>30728</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>36143</v>
+        <v>36028</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>29889</v>
+        <v>29940</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>29598</v>
+        <v>30122</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>58202</v>
+        <v>59149</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17101</v>
+        <v>17027</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16243</v>
+        <v>16037</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>16346</v>
+        <v>16299</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>30509</v>
+        <v>29424</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5176</v>
+        <v>4797</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10093</v>
+        <v>9951</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>14097</v>
+        <v>14191</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>36268</v>
+        <v>36615</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>25234</v>
+        <v>25136</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>29373</v>
+        <v>30229</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>34160</v>
+        <v>34549</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>70413</v>
+        <v>71546</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>32102</v>
+        <v>32550</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>29597</v>
+        <v>29746</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>27529</v>
+        <v>27441</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>47462</v>
+        <v>47340</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14239</v>
+        <v>14249</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>21003</v>
+        <v>21506</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>24420</v>
+        <v>24416</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>47018</v>
+        <v>46925</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>43286</v>
+        <v>43013</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>48039</v>
+        <v>47461</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>49556</v>
+        <v>48861</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>89937</v>
+        <v>91291</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4885</v>
+        <v>4856</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10058</v>
+        <v>9432</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3923</v>
+        <v>4478</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>6424</v>
+        <v>6390</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3571</v>
+        <v>3496</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1860</v>
+        <v>1830</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3547</v>
+        <v>3504</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5339</v>
+        <v>5530</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>16372</v>
+        <v>16390</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>8549</v>
+        <v>7930</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>11959</v>
+        <v>11676</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14226</v>
+        <v>14085</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>16169</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>12390</v>
+        <v>12686</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>14665</v>
+        <v>14407</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>4975</v>
+        <v>4014</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>10610</v>
+        <v>10660</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>5771</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>8646</v>
+        <v>8608</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>16083</v>
+        <v>15832</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>25762</v>
+        <v>25071</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>17635</v>
+        <v>17556</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>21618</v>
+        <v>21542</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>11190</v>
+        <v>11144</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>18127</v>
+        <v>18501</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3773</v>
+        <v>3902</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>15759</v>
+        <v>15839</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2787</v>
+        <v>2009</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1008</v>
+        <v>1039</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>3263</v>
+        <v>3320</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>13167</v>
+        <v>13326</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>15041</v>
+        <v>15411</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>21387</v>
+        <v>20791</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>8648</v>
+        <v>8926</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>31497</v>
+        <v>32297</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>23903</v>
+        <v>23494</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>30569</v>
+        <v>31000</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>12374</v>
+        <v>13170</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>25930</v>
+        <v>25831</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>9930</v>
+        <v>9749</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8056</v>
+        <v>8023</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>7427</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>21860</v>
+        <v>22043</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>30586</v>
+        <v>31182</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>35833</v>
+        <v>36209</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>19926</v>
+        <v>20275</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>44819</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>32130</v>
+        <v>32587</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>15334</v>
+        <v>15131</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>42330</v>
+        <v>41708</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>38678</v>
+        <v>39819</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>15490</v>
+        <v>15307</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>19312</v>
+        <v>19442</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>24749</v>
+        <v>24820</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>44623</v>
+        <v>43688</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>52921</v>
+        <v>54516</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>38644</v>
+        <v>37922</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>73216</v>
+        <v>71510</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>88328</v>
+        <v>89222</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>51517</v>
+        <v>50894</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>30073</v>
+        <v>30002</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>59840</v>
+        <v>60011</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>60166</v>
+        <v>60387</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>28826</v>
+        <v>29060</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>33055</v>
+        <v>32815</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>39722</v>
+        <v>39378</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>59646</v>
+        <v>59962</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>76967</v>
+        <v>76715</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>59698</v>
+        <v>58337</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>96262</v>
+        <v>95504</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>114880</v>
+        <v>115516</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>57925</v>
+        <v>57833</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>12655</v>
+        <v>12826</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>8288</v>
+        <v>8499</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>41080</v>
+        <v>41822</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>24626</v>
+        <v>24965</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>11504</v>
+        <v>10989</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>6450</v>
+        <v>6670</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>20639</v>
+        <v>20381</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>88449</v>
+        <v>88103</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>27626</v>
+        <v>27437</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>17762</v>
+        <v>17741</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>66419</v>
+        <v>65840</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>77704</v>
+        <v>78488</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>26039</v>
+        <v>26297</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>20820</v>
+        <v>20556</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>56217</v>
+        <v>56455</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>38775</v>
+        <v>38089</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>23678</v>
+        <v>23187</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>16061</v>
+        <v>15781</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>34299</v>
+        <v>35180</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>111874</v>
+        <v>112329</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>46147</v>
+        <v>46465</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>35087</v>
+        <v>33657</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>87229</v>
+        <v>87277</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>222389</v>
+        <v>224723</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>157395</v>
+        <v>160709</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>189500</v>
+        <v>188545</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>220400</v>
+        <v>221227</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>99141</v>
+        <v>98690</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>94412</v>
+        <v>94187</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>131536</v>
+        <v>130948</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>192628</v>
+        <v>193169</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>329989</v>
+        <v>333308</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>266816</v>
+        <v>265731</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>328319</v>
+        <v>330785</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>422855</v>
+        <v>422285</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>268768</v>
+        <v>267332</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>197275</v>
+        <v>196785</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>227720</v>
+        <v>226111</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>263070</v>
+        <v>262810</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>128106</v>
+        <v>127830</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>124875</v>
+        <v>126348</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>159067</v>
+        <v>160046</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>223046</v>
+        <v>224008</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>384374</v>
+        <v>386561</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>312071</v>
+        <v>309860</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>376560</v>
+        <v>377555</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>473546</v>
+        <v>477186</v>
       </c>
     </row>
     <row r="40">
